--- a/CODAテーブル定義.xlsx
+++ b/CODAテーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C3146-AD56-E94B-B9D5-E3010AF69C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2465A63-0CD2-BD41-8BA6-C0B32E1D1142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29560" yWindow="2260" windowWidth="27020" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="29740" yWindow="4940" windowWidth="27020" windowHeight="15380" activeTab="2" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル定義" sheetId="1" r:id="rId1"/>
@@ -344,14 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bpchar(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>delete_flg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -419,6 +411,14 @@
     <rPh sb="8" eb="9">
       <t>フヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -554,12 +554,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,14 +563,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B311B770-0CBB-714E-AE4F-85B9602A9323}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -934,8 +934,8 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>58</v>
+      <c r="E2" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -951,8 +951,8 @@
       <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>59</v>
+      <c r="E3" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -989,33 +989,33 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>57</v>
+      <c r="L1" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>15</v>
@@ -1074,15 +1074,15 @@
         <v>44</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
@@ -1096,20 +1096,20 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>20</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
@@ -1123,18 +1123,18 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="4">
         <v>20</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="4" t="s">
         <v>49</v>
       </c>
@@ -1149,44 +1149,44 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32510F9-B48C-C84F-BB49-0B90BE2FFE08}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1231,33 +1231,33 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>57</v>
+      <c r="L1" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>15</v>
@@ -1316,15 +1316,15 @@
         <v>44</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
@@ -1338,18 +1338,18 @@
         <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>30</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="4" t="s">
         <v>42</v>
       </c>
@@ -1368,13 +1368,13 @@
         <v>45</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="4"/>
@@ -1390,20 +1390,20 @@
         <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4">
         <v>30</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1417,20 +1417,20 @@
         <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1441,17 +1441,17 @@
         <v>50</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
@@ -1462,17 +1462,17 @@
         <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
@@ -1483,17 +1483,17 @@
         <v>52</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
@@ -1504,21 +1504,19 @@
         <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="4"/>
     </row>
     <row r="18" spans="1:11">
@@ -1531,44 +1529,44 @@
         <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
